--- a/auto-trade_prediction-record.xlsx
+++ b/auto-trade_prediction-record.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -488,19 +488,41 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="0" t="n">
         <v>1647861015.423812</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4914371.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>4928837</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="A5" s="0" t="n">
+        <v>1648032330.65795</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>4930942</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5100158</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1648033811.794775</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5103092.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5096000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>5100014.5</v>
       </c>
     </row>
   </sheetData>

--- a/auto-trade_prediction-record.xlsx
+++ b/auto-trade_prediction-record.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -510,19 +510,63 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="0" t="n">
         <v>1648033811.794775</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5103092.5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>5096000</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
+      <c r="A7" s="0" t="n">
+        <v>1648048937.563222</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>5100014.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5145180</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>1648049709.923526</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5140294.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5143587</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>1648050253.580165</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5140667</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5159809</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1648124011.999906</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5114291</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5224469</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>5195162</v>
       </c>
     </row>
   </sheetData>

--- a/auto-trade_prediction-record.xlsx
+++ b/auto-trade_prediction-record.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -554,19 +554,30 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="0" t="n">
         <v>1648124011.999906</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5114291</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>5224469</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="n">
+      <c r="A11" t="n">
+        <v>1649020135.823061</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>5195162</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5693266</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>5658864</v>
       </c>
     </row>
   </sheetData>

--- a/auto-trade_prediction-record.xlsx
+++ b/auto-trade_prediction-record.xlsx
@@ -1,41 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\Desktop\edited_version\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA66C97-CEAD-49FB-95FE-5C289FE95805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>actual price</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,88 +74,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -432,155 +396,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col width="12.296875" customWidth="1" style="1" min="2" max="2"/>
-    <col width="11.8984375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="10.3984375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>actual price</t>
-        </is>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>1647774817.505398</v>
-      </c>
-      <c r="B2" s="0" t="n"/>
-      <c r="C2" s="0" t="n">
-        <v>4971214</v>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>1647854971.368216</v>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>4981773</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>4917511</v>
-      </c>
+      <c r="C3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>1647861015.423812</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4914371.5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>4928837</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>1648032330.65795</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4930942</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>5100158</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>1648033811.794775</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5103092.5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>5096000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>1648048937.563222</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>5100014.5</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>5145180</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>1648049709.923526</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>5140294.5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>5143587</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>1648050253.580165</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>5140667</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>5159809</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>1648124011.999906</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>5114291</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>5224469</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1649020135.823061</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>5195162</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5693266</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
-        <v>5658864</v>
-      </c>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>